--- a/src/files/local_files/now_price8.xlsx
+++ b/src/files/local_files/now_price8.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.43</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72.30</t>
+          <t>72.09</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.29</t>
+          <t>13.31</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42.37</t>
+          <t>42.39</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1486.99</t>
+          <t>1488.11</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>359.79</t>
+          <t>360.67</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>10.75</t>
         </is>
       </c>
     </row>

--- a/src/files/local_files/now_price8.xlsx
+++ b/src/files/local_files/now_price8.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>7.49</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>872808</t>
+          <t>920808</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>72.09</t>
+          <t>84.71</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>30.74</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17.40</t>
+          <t>22.57</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42.39</t>
+          <t>42.96</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1488.11</t>
+          <t>1458.99</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>360.67</t>
+          <t>98.71</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>16.49</t>
         </is>
       </c>
     </row>
